--- a/Orders.xlsx
+++ b/Orders.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Shop</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Customs processing</t>
-  </si>
-  <si>
     <t>RC Castle</t>
   </si>
   <si>
@@ -52,6 +49,24 @@
   </si>
   <si>
     <t>Total:</t>
+  </si>
+  <si>
+    <t>Received</t>
+  </si>
+  <si>
+    <t>Customs</t>
+  </si>
+  <si>
+    <t>Customs for RC Castle</t>
+  </si>
+  <si>
+    <t>Paid</t>
+  </si>
+  <si>
+    <t>24/10/2017</t>
+  </si>
+  <si>
+    <t>Total of 322kn (264kn tax + 54 duties)</t>
   </si>
 </sst>
 </file>
@@ -397,14 +412,14 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.6328125" customWidth="1"/>
     <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="69.90625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.453125" bestFit="1" customWidth="1"/>
   </cols>
@@ -431,7 +446,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2">
         <v>42926</v>
@@ -440,22 +455,42 @@
         <v>169.96</v>
       </c>
       <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3">
+        <v>49.5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" s="3">
         <f>SUM(C2:C16)</f>
-        <v>169.96</v>
+        <v>219.46</v>
       </c>
     </row>
   </sheetData>
